--- a/threshold_result_list_5.xlsx
+++ b/threshold_result_list_5.xlsx
@@ -648,7 +648,7 @@
         <v>0.3752886376497292</v>
       </c>
       <c r="D4" t="n">
-        <v>0.398967947279992</v>
+        <v>0.3989679472799921</v>
       </c>
       <c r="E4" t="n">
         <v>0.3987286117531919</v>
@@ -684,13 +684,13 @@
         <v>0.617032187362993</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1256894662858671</v>
+        <v>0.1256894662858672</v>
       </c>
       <c r="Q4" t="n">
         <v>0.2001194358293541</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6394509885785212</v>
+        <v>0.6394509885785211</v>
       </c>
       <c r="S4" t="n">
         <v>0.6722428097858981</v>
